--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,68 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14897"/>
+    <workbookView windowWidth="28345" windowHeight="14297"/>
   </bookViews>
   <sheets>
-    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>LevelId</t>
   </si>
   <si>
-    <t>boosId</t>
+    <t>BossId</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>所属进程</t>
-  </si>
-  <si>
-    <t>所属区</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>外网端口</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>SceneType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
   </si>
 </sst>
 </file>
@@ -75,8 +35,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -101,6 +61,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,12 +83,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -121,23 +119,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,17 +173,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,74 +197,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -259,19 +219,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,13 +315,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,127 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,11 +413,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,26 +484,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,55 +510,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,16 +528,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,115 +546,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1024,7 @@
   <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1093,7 +1053,9 @@
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1103,7 +1065,9 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1113,7 +1077,9 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>100001</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1123,7 +1089,9 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>100002</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1133,170 +1101,75 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>100003</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>100004</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>100005</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="5">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>100006</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="5">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>100007</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:4">
       <c r="C13" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="3:3">
+      <c r="D13" s="5">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
       <c r="C14" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="3:3">
+      <c r="D14" s="5">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
       <c r="C15" s="5">
         <v>10</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelRow="5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="D15" s="5">
+        <v>100010</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -14,18 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>LevelId</t>
+    <t>关卡ID</t>
   </si>
   <si>
-    <t>BossId</t>
+    <t>英雄Id</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>HeroId</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>100001,100002</t>
+  </si>
+  <si>
+    <t>100001,100003</t>
+  </si>
+  <si>
+    <t>100001,100004</t>
+  </si>
+  <si>
+    <t>100001,100005</t>
+  </si>
+  <si>
+    <t>100001,100006</t>
+  </si>
+  <si>
+    <t>100001,100007</t>
   </si>
 </sst>
 </file>
@@ -34,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -60,6 +84,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -69,6 +101,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -76,19 +152,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -97,41 +174,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,56 +197,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +212,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -219,55 +243,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,43 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,67 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +434,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,6 +492,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,67 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,137 +552,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +695,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,14 +1051,16 @@
   <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D15"/>
+      <selection activeCell="D6" sqref="D6:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6306306306306" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.2612612612613" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6306306306306" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -1054,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1063,10 +1092,10 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1077,8 +1106,8 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>100001</v>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1089,8 +1118,8 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
-        <v>100002</v>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1101,8 +1130,8 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>100003</v>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="5"/>
       <c r="H8" s="5"/>
@@ -1111,8 +1140,8 @@
       <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
-        <v>100004</v>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="5"/>
       <c r="H9" s="5"/>
@@ -1121,8 +1150,8 @@
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>100005</v>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="5"/>
       <c r="H10" s="5"/>
@@ -1131,45 +1160,29 @@
       <c r="C11" s="5">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
-        <v>100006</v>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>100007</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>100008</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="5">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5">
-        <v>100009</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5">
-        <v>100010</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>关卡ID</t>
   </si>
@@ -22,10 +22,28 @@
     <t>英雄Id</t>
   </si>
   <si>
+    <t>行数</t>
+  </si>
+  <si>
+    <t>列数</t>
+  </si>
+  <si>
+    <t>宝石间距</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>HeroId</t>
+  </si>
+  <si>
+    <t>HangCount</t>
+  </si>
+  <si>
+    <t>LieCount</t>
+  </si>
+  <si>
+    <t>Distance</t>
   </si>
   <si>
     <t>int</t>
@@ -57,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -92,6 +110,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -99,91 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,23 +224,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -222,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,25 +261,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,19 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,133 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,32 +460,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +518,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -540,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1069,7 @@
   <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D11"/>
+      <selection activeCell="G6" sqref="G6:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1073,33 +1091,51 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="1" ht="14.1" spans="3:8">
@@ -1107,11 +1143,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.2</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:8">
@@ -1119,11 +1161,17 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.2</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="3:8">
@@ -1131,9 +1179,17 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
         <v>8</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.2</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="3:8">
@@ -1141,9 +1197,17 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.2</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="3:8">
@@ -1151,9 +1215,17 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.2</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="3:8">
@@ -1161,9 +1233,17 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.2</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="3:8">

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14297"/>
+    <workbookView windowWidth="28345" windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>100001,100002</t>
+    <t>100001,100008,100009</t>
   </si>
   <si>
     <t>100001,100003</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -103,13 +103,80 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -118,21 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -140,6 +192,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -149,8 +208,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,83 +232,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,181 +267,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,46 +459,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +496,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -543,25 +552,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75529AC2-F4DC-4538-8A1D-D675BEC33A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B2D3AE-0E54-4B71-B41D-3A6D5C01632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="6140" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7850" yWindow="4000" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>关卡ID</t>
   </si>
@@ -28,28 +28,10 @@
     <t>英雄Id</t>
   </si>
   <si>
-    <t>行数</t>
-  </si>
-  <si>
-    <t>列数</t>
-  </si>
-  <si>
-    <t>宝石间距</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
     <t>HeroId</t>
-  </si>
-  <si>
-    <t>HangCount</t>
-  </si>
-  <si>
-    <t>LieCount</t>
-  </si>
-  <si>
-    <t>Distance</t>
   </si>
   <si>
     <t>int</t>
@@ -75,6 +57,22 @@
   </si>
   <si>
     <t>1000000001,1000000002,1000000008</t>
+  </si>
+  <si>
+    <t>产出的宝石种类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondTypes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H15"/>
+  <dimension ref="C3:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -472,13 +470,11 @@
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="46.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="13.08984375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -486,175 +482,111 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="3:8" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5">
         <v>8</v>
       </c>
-      <c r="F8" s="5">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B2D3AE-0E54-4B71-B41D-3A6D5C01632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCDD85D-47FC-4624-B000-1EFCF7F08BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7850" yWindow="4000" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>关卡ID</t>
   </si>
@@ -72,6 +72,38 @@
   </si>
   <si>
     <t>DiamondTypes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每点怒气值的大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngryCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次连击的攻击力加成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackAddition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击的起始攻击力加成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartAttackAddition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,40</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E15"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H6" sqref="H6:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -471,10 +503,13 @@
     <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="46.36328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="20.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -484,8 +519,17 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -495,8 +539,17 @@
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -506,8 +559,17 @@
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -517,8 +579,17 @@
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -528,8 +599,17 @@
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -539,8 +619,17 @@
       <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -550,8 +639,17 @@
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -561,8 +659,17 @@
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -572,27 +679,36 @@
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCDD85D-47FC-4624-B000-1EFCF7F08BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B2DEE-B306-459A-8306-6813085F126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>关卡ID</t>
   </si>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>20,30,40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +497,7 @@
   <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -577,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>1</v>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B2DEE-B306-459A-8306-6813085F126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724C9118-1EB0-4644-BC9C-31266AA24597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>关卡ID</t>
   </si>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>20,30,40</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>1</v>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724C9118-1EB0-4644-BC9C-31266AA24597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D922EB-F40D-46D2-8AF9-54C9F42891EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>关卡ID</t>
   </si>
@@ -105,6 +105,84 @@
   <si>
     <t>20,30,40</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棋盘初始数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitBoardData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 4, 1, 5, 3, 4, 5, 5, 1, 2, 5, 2, 5, 4, 3, 2, 3, 2, 5, 4, 3, 2, 5, 2, 5, 2, 1, 2, 1, 1, 5, 4, 5, 2, 1, 4, 2, 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句1.语句2.语句3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡剧情战前</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡剧情胜利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelStoryWin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelStoryBegin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利语句1胜利.语句2.胜利语句3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利语句1胜利.语句2.胜利语句4</t>
+  </si>
+  <si>
+    <t>胜利语句1胜利.语句2.胜利语句5</t>
+  </si>
+  <si>
+    <t>胜利语句1胜利.语句2.胜利语句6</t>
+  </si>
+  <si>
+    <t>胜利语句1胜利.语句2.胜利语句7</t>
+  </si>
+  <si>
+    <t>胜利语句1胜利.语句2.胜利语句8</t>
+  </si>
+  <si>
+    <t>关卡举行失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelStoryLose</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败语句1.失败语句2.失败语句3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败语句1.失败语句2.失败语句4</t>
+  </si>
+  <si>
+    <t>失败语句1.失败语句2.失败语句5</t>
+  </si>
+  <si>
+    <t>失败语句1.失败语句2.失败语句6</t>
+  </si>
+  <si>
+    <t>失败语句1.失败语句2.失败语句7</t>
+  </si>
+  <si>
+    <t>失败语句1.失败语句2.失败语句8</t>
   </si>
 </sst>
 </file>
@@ -490,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H15"/>
+  <dimension ref="C3:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -506,10 +584,14 @@
     <col min="6" max="6" width="20.453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.36328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -528,8 +610,20 @@
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -548,8 +642,20 @@
       <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -568,8 +674,20 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -588,8 +706,20 @@
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="I6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -608,8 +738,20 @@
       <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -628,8 +770,20 @@
       <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -648,8 +802,20 @@
       <c r="H9" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -668,8 +834,20 @@
       <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -688,21 +866,33 @@
       <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D922EB-F40D-46D2-8AF9-54C9F42891EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A83CC96-5426-430C-B480-C9202783A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>关卡ID</t>
   </si>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>失败语句1.失败语句2.失败语句8</t>
+  </si>
+  <si>
+    <t>3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 3, 3, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 1, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,7 +575,7 @@
   <dimension ref="C3:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -584,7 +588,7 @@
     <col min="6" max="6" width="20.453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.36328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
+    <col min="9" max="9" width="77" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.453125" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.1796875" style="2" customWidth="1"/>
@@ -707,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>27</v>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A83CC96-5426-430C-B480-C9202783A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F6783-8216-49B8-A784-FFBFFA24452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="3780" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>关卡ID</t>
   </si>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>胜利语句1胜利.语句2.胜利语句3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>胜利语句1胜利.语句2.胜利语句4</t>
   </si>
   <si>
@@ -187,6 +183,12 @@
   <si>
     <t>3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 3, 3, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 1, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是你开启了光门吧。.这里似乎有一出好戏要开幕了。</t>
+  </si>
+  <si>
+    <t>不必谢我，我只是想让日子多一点趣味。.凡人，你叫什么名字？.玩家：输入自己的ID————————.————————，神谕早已提过这个名字…….实在太有趣了，哈哈哈哈哈哈！</t>
   </si>
 </sst>
 </file>
@@ -250,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +269,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -624,7 +629,7 @@
         <v>29</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
@@ -656,7 +661,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
@@ -691,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:12" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:12" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -711,16 +716,16 @@
         <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
+      <c r="K6" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="3:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -749,10 +754,10 @@
         <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.35">
@@ -781,10 +786,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.35">
@@ -813,10 +818,10 @@
         <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.35">
@@ -845,10 +850,10 @@
         <v>27</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="15" x14ac:dyDescent="0.35">
@@ -877,10 +882,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F6783-8216-49B8-A784-FFBFFA24452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67AB562-3CAF-457F-8B9C-3385AC20A0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="3780" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>关卡ID</t>
   </si>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>语句1.语句2.语句3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡剧情战前</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,21 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>胜利语句1胜利.语句2.胜利语句4</t>
-  </si>
-  <si>
-    <t>胜利语句1胜利.语句2.胜利语句5</t>
-  </si>
-  <si>
-    <t>胜利语句1胜利.语句2.胜利语句6</t>
-  </si>
-  <si>
-    <t>胜利语句1胜利.语句2.胜利语句7</t>
-  </si>
-  <si>
-    <t>胜利语句1胜利.语句2.胜利语句8</t>
-  </si>
-  <si>
     <t>关卡举行失败</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -162,33 +143,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>失败语句1.失败语句2.失败语句3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败语句1.失败语句2.失败语句4</t>
-  </si>
-  <si>
-    <t>失败语句1.失败语句2.失败语句5</t>
-  </si>
-  <si>
-    <t>失败语句1.失败语句2.失败语句6</t>
-  </si>
-  <si>
-    <t>失败语句1.失败语句2.失败语句7</t>
-  </si>
-  <si>
-    <t>失败语句1.失败语句2.失败语句8</t>
-  </si>
-  <si>
     <t>3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 3, 3, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 1, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是你开启了光门吧。.这里似乎有一出好戏要开幕了。</t>
-  </si>
-  <si>
-    <t>不必谢我，我只是想让日子多一点趣味。.凡人，你叫什么名字？.玩家：输入自己的ID————————.————————，神谕早已提过这个名字…….实在太有趣了，哈哈哈哈哈哈！</t>
   </si>
 </sst>
 </file>
@@ -270,7 +226,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -579,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -623,13 +579,13 @@
         <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
@@ -655,13 +611,13 @@
         <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
@@ -696,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:12" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:12" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -716,16 +672,16 @@
         <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="J6" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="K6" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="L6" s="7">
+        <v>101102103</v>
       </c>
     </row>
     <row r="7" spans="3:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -750,14 +706,14 @@
       <c r="I7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>40</v>
+      <c r="J7" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="K7" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="L7" s="7">
+        <v>101102103</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.35">
@@ -782,14 +738,14 @@
       <c r="I8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
+      <c r="J8" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="K8" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="L8" s="7">
+        <v>101102103</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.35">
@@ -814,14 +770,14 @@
       <c r="I9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>42</v>
+      <c r="J9" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="K9" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="L9" s="7">
+        <v>101102103</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.35">
@@ -846,14 +802,14 @@
       <c r="I10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>43</v>
+      <c r="J10" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="K10" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="L10" s="7">
+        <v>101102103</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="15" x14ac:dyDescent="0.35">
@@ -878,14 +834,14 @@
       <c r="I11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>44</v>
+      <c r="J11" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="K11" s="7">
+        <v>101102103</v>
+      </c>
+      <c r="L11" s="7">
+        <v>101102103</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67AB562-3CAF-457F-8B9C-3385AC20A0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8ACCD1-BD3A-4B96-9376-71DF56AF3C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>关卡ID</t>
   </si>
@@ -28,20 +28,73 @@
     <t>英雄Id</t>
   </si>
   <si>
+    <t>产出的宝石种类</t>
+  </si>
+  <si>
+    <t>每点怒气值的大小</t>
+  </si>
+  <si>
+    <t>每次连击的攻击力加成</t>
+  </si>
+  <si>
+    <t>连击的起始攻击力加成</t>
+  </si>
+  <si>
+    <t>棋盘初始数据</t>
+  </si>
+  <si>
+    <t>关卡剧情战前</t>
+  </si>
+  <si>
+    <t>关卡剧情胜利</t>
+  </si>
+  <si>
+    <t>关卡剧情失败</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>HeroId</t>
   </si>
   <si>
+    <t>DiamondTypes</t>
+  </si>
+  <si>
+    <t>AngryCount</t>
+  </si>
+  <si>
+    <t>AttackAddition</t>
+  </si>
+  <si>
+    <t>StartAttackAddition</t>
+  </si>
+  <si>
+    <t>InitBoardData</t>
+  </si>
+  <si>
+    <t>LevelStoryBegin</t>
+  </si>
+  <si>
+    <t>LevelStoryWin</t>
+  </si>
+  <si>
+    <t>LevelStoryLose</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>1000000001,1000000002,1000000003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>20,30,40</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 4, 1, 5, 3, 4, 5, 5, 1, 2, 5, 2, 5, 4, 3, 2, 3, 2, 5, 4, 3, 2, 5, 2, 5, 2, 1, 2, 1, 1, 5, 4, 5, 2, 1, 4, 2, 4</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000004</t>
@@ -50,6 +103,9 @@
     <t>1000000001,1000000002,1000000005</t>
   </si>
   <si>
+    <t>4, 1, 1, 2, 1, 1, 4, 5, 4, 4, 2, 4, 4, 5, 4, 5, 5, 3, 5, 5, 4, 3, 4, 3, 5, 3, 4, 3, 4, 3, 4, 1, 4, 3, 4, 4, 2, 3, 5, 3, 2, 4</t>
+  </si>
+  <si>
     <t>1000000001,1000000002,1000000006</t>
   </si>
   <si>
@@ -59,99 +115,18 @@
     <t>1000000001,1000000002,1000000008</t>
   </si>
   <si>
-    <t>产出的宝石种类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondTypes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每点怒气值的大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AngryCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次连击的攻击力加成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackAddition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击的起始攻击力加成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartAttackAddition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,40</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>棋盘初始数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitBoardData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 4, 1, 5, 3, 4, 5, 5, 1, 2, 5, 2, 5, 4, 3, 2, 3, 2, 5, 4, 3, 2, 5, 2, 5, 2, 1, 2, 1, 1, 5, 4, 5, 2, 1, 4, 2, 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡剧情战前</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡剧情胜利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelStoryWin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelStoryBegin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡举行失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelStoryLose</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 3, 3, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 1, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 3, 3, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 1, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2 </t>
+  </si>
+  <si>
+    <t>1000000001,1000000002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +145,13 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -208,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +210,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -564,92 +549,92 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:12" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -657,10 +642,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -672,27 +657,25 @@
         <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J6" s="7">
-        <v>101102103</v>
+        <v>101102</v>
       </c>
       <c r="K6" s="7">
-        <v>101102103</v>
-      </c>
-      <c r="L6" s="7">
-        <v>101102103</v>
-      </c>
+        <v>103104105106107</v>
+      </c>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="3:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -704,27 +687,25 @@
         <v>23</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7">
-        <v>101102103</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7">
-        <v>101102103</v>
-      </c>
-      <c r="L7" s="7">
-        <v>101102103</v>
-      </c>
+        <v>109110111112</v>
+      </c>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -735,8 +716,8 @@
       <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>26</v>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="J8" s="7">
         <v>101102103</v>
@@ -744,19 +725,17 @@
       <c r="K8" s="7">
         <v>101102103</v>
       </c>
-      <c r="L8" s="7">
-        <v>101102103</v>
-      </c>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -768,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" s="7">
         <v>101102103</v>
@@ -776,19 +755,17 @@
       <c r="K9" s="7">
         <v>101102103</v>
       </c>
-      <c r="L9" s="7">
-        <v>101102103</v>
-      </c>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -800,7 +777,7 @@
         <v>23</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="7">
         <v>101102103</v>
@@ -808,19 +785,17 @@
       <c r="K10" s="7">
         <v>101102103</v>
       </c>
-      <c r="L10" s="7">
-        <v>101102103</v>
-      </c>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="3:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -832,7 +807,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="7">
         <v>101102103</v>
@@ -840,9 +815,7 @@
       <c r="K11" s="7">
         <v>101102103</v>
       </c>
-      <c r="L11" s="7">
-        <v>101102103</v>
-      </c>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
@@ -862,8 +835,8 @@
       <c r="D15" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8ACCD1-BD3A-4B96-9376-71DF56AF3C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>关卡ID</t>
   </si>
@@ -88,22 +82,31 @@
     <t>string</t>
   </si>
   <si>
+    <t>1000000001,1000000001,1000000001</t>
+  </si>
+  <si>
     <t>1,2,3,4,5</t>
   </si>
   <si>
     <t>20,30,40</t>
   </si>
   <si>
+    <t>5, 1, 5, 2, 5, 1, 5, 4, 2, 4, 1, 4, 2, 4, 3, 4, 3, 5, 3, 4, 3, 2, 3, 2, 3, 2, 3, 2, 1, 5, 1, 2, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4</t>
+  </si>
+  <si>
+    <t>1000000001,1000000002,1000000004</t>
+  </si>
+  <si>
     <t>1, 2, 3, 4, 5, 4, 1, 5, 3, 4, 5, 5, 1, 2, 5, 2, 5, 4, 3, 2, 3, 2, 5, 4, 3, 2, 5, 2, 5, 2, 1, 2, 1, 1, 5, 4, 5, 2, 1, 4, 2, 4</t>
   </si>
   <si>
-    <t>1000000001,1000000002,1000000004</t>
-  </si>
-  <si>
     <t>1000000001,1000000002,1000000005</t>
   </si>
   <si>
-    <t>4, 1, 1, 2, 1, 1, 4, 5, 4, 4, 2, 4, 4, 5, 4, 5, 5, 3, 5, 5, 4, 3, 4, 3, 5, 3, 4, 3, 4, 3, 4, 1, 4, 3, 4, 4, 2, 3, 5, 3, 2, 4</t>
+    <t>3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 5, 5, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 5, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
+  </si>
+  <si>
+    <t>113, 114, 115, 116, 117, 118, 119</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000006</t>
@@ -112,21 +115,23 @@
     <t>1000000001,1000000002,1000000007</t>
   </si>
   <si>
+    <t>121， 122， 123， 124</t>
+  </si>
+  <si>
     <t>1000000001,1000000002,1000000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 3, 3, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 1, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2 </t>
-  </si>
-  <si>
-    <t>1000000001,1000000002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +143,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -146,25 +150,160 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +316,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,11 +511,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,24 +775,75 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -512,36 +1130,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.725" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.3666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.0916666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.45" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.3666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.2666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="77" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.453125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="28.0416666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.1833333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.875" style="2"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -573,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:12">
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
@@ -605,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:12">
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
@@ -637,15 +1256,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:12" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="1" spans="3:12">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -654,28 +1273,28 @@
         <v>10</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="7">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8">
         <v>101102</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <v>103104105106107</v>
       </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="3:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -684,28 +1303,28 @@
         <v>10</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="7">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8">
         <v>108</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9">
         <v>109110111112</v>
       </c>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="3:13">
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -714,28 +1333,27 @@
         <v>10</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7">
-        <v>101102103</v>
-      </c>
-      <c r="K8" s="7">
-        <v>101102103</v>
-      </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="3:12">
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -744,28 +1362,26 @@
         <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="7">
-        <v>101102103</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="7">
-        <v>101102103</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="3:12">
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -774,28 +1390,28 @@
         <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="7">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8">
         <v>101102103</v>
       </c>
-      <c r="K10" s="7">
-        <v>101102103</v>
-      </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="3:12">
       <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -804,39 +1420,105 @@
         <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="7">
+        <v>27</v>
+      </c>
+      <c r="J11" s="8">
         <v>101102103</v>
       </c>
       <c r="K11" s="7">
         <v>101102103</v>
       </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="5"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="5"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="5"/>
+    <row r="15" spans="3:4">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
       <c r="D15" s="5"/>
     </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="5">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>关卡ID</t>
   </si>
@@ -97,19 +97,25 @@
     <t>1000000001,1000000002,1000000004</t>
   </si>
   <si>
+    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 3, 5, 3, 4, 3, 2, 3, 3, 2, 3, 4, 2, 1, 5, 1, 3, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4</t>
+  </si>
+  <si>
+    <t>108, 109, 110</t>
+  </si>
+  <si>
+    <t>1000000001,1000000002,1000000005</t>
+  </si>
+  <si>
+    <t>3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 5, 5, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 5, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
+  </si>
+  <si>
+    <t>113, 114, 115, 116, 117, 118, 119</t>
+  </si>
+  <si>
+    <t>1000000001,1000000002,1000000006</t>
+  </si>
+  <si>
     <t>1, 2, 3, 4, 5, 4, 1, 5, 3, 4, 5, 5, 1, 2, 5, 2, 5, 4, 3, 2, 3, 2, 5, 4, 3, 2, 5, 2, 5, 2, 1, 2, 1, 1, 5, 4, 5, 2, 1, 4, 2, 4</t>
-  </si>
-  <si>
-    <t>1000000001,1000000002,1000000005</t>
-  </si>
-  <si>
-    <t>3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 5, 5, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 5, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
-  </si>
-  <si>
-    <t>113, 114, 115, 116, 117, 118, 119</t>
-  </si>
-  <si>
-    <t>1000000001,1000000002,1000000006</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000007</t>
@@ -757,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,6 +788,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1138,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="C3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1305,14 +1314,14 @@
       <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="8">
-        <v>108</v>
+      <c r="J7" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="K7" s="9">
-        <v>109110111112</v>
+        <v>111112</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -1321,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>23</v>
@@ -1336,21 +1345,21 @@
         <v>24</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="10" t="s">
-        <v>30</v>
+      <c r="K8" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="L8" s="8"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>23</v>
@@ -1365,7 +1374,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="7">
@@ -1378,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
@@ -1393,13 +1402,13 @@
         <v>24</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J10" s="8">
         <v>101102103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L10" s="8"/>
     </row>
@@ -1408,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>23</v>
@@ -1423,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J11" s="8">
         <v>101102103</v>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14220"/>
+    <workbookView windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>关卡ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>产出的宝石种类</t>
   </si>
   <si>
+    <t>每次受击增加的怒气</t>
+  </si>
+  <si>
     <t>每点怒气值的大小</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>DiamondTypes</t>
   </si>
   <si>
+    <t>BeHitedAngry</t>
+  </si>
+  <si>
     <t>AngryCount</t>
   </si>
   <si>
@@ -115,16 +121,40 @@
     <t>1000000001,1000000002,1000000006</t>
   </si>
   <si>
+    <t>1, 2, 3, 4, 5, 1, 2, 4, 5, 1, 2, 3, 4, 5, 2, 3, 4, 5, 1, 2, 3, 5, 1, 2, 3, 4, 5, 1, 3, 4, 5, 1, 2, 3, 4, 1, 2, 3, 4, 5, 1, 2</t>
+  </si>
+  <si>
+    <t>1000000001,1000000002,1000000007</t>
+  </si>
+  <si>
     <t>1, 2, 3, 4, 5, 4, 1, 5, 3, 4, 5, 5, 1, 2, 5, 2, 5, 4, 3, 2, 3, 2, 5, 4, 3, 2, 5, 2, 5, 2, 1, 2, 1, 1, 5, 4, 5, 2, 1, 4, 2, 4</t>
   </si>
   <si>
-    <t>1000000001,1000000002,1000000007</t>
-  </si>
-  <si>
     <t>121， 122， 123， 124</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000008</t>
+  </si>
+  <si>
+    <t>1, 1, 3, 2, 4, 1, 1, 2, 2, 4, 3, 5, 2, 2, 3, 3, 5, 4, 1, 3, 3, 4, 4, 1, 5, 2, 4, 4, 5, 5, 2, 1, 3, 5, 5, 1, 1, 3, 2, 4, 1, 1</t>
+  </si>
+  <si>
+    <t>1000000013,1000000013,1000000013</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 1, 2, 5, 1, 2, 3, 4, 5, 1, 4, 5, 1, 2, 3, 4, 5, 3, 4, 5, 1, 2, 3, 4, 2, 3, 4, 5, 1, 2, 3, 1, 2, 3, 4, 5, 1, 2</t>
+  </si>
+  <si>
+    <t>1000000013,1000000013,1000000014</t>
+  </si>
+  <si>
+    <t>1000000013,1000000013,1000000015</t>
+  </si>
+  <si>
+    <t>1000000013,1000000013,1000000016</t>
+  </si>
+  <si>
+    <t>1000000013,1000000013,1000000017</t>
   </si>
 </sst>
 </file>
@@ -132,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -166,28 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +217,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -210,22 +255,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -241,15 +279,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -264,6 +302,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -272,29 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -303,7 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,12 +354,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,169 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,17 +548,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +596,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -567,199 +632,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -790,64 +820,64 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1145,31 +1175,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M26"/>
+  <dimension ref="C3:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="21.0916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.725" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.3666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.0916666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.45" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.3666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.2666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="77" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.0416666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.1833333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.875" style="2"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.0961538461538" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7211538461538" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.3653846153846" style="3" customWidth="1"/>
+    <col min="5" max="6" width="13.0961538461538" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.4519230769231" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.3653846153846" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.2692307692308" style="2" customWidth="1"/>
+    <col min="10" max="10" width="77" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.0384615384615" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.1826923076923" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.875" style="2"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:13">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1200,329 +1230,584 @@
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="3:12">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="16.8" spans="3:13">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="8">
         <v>101102</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6" s="9">
         <v>103104105106107</v>
       </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:12">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:13">
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="9">
         <v>111112</v>
       </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="3:13">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" ht="16.8" spans="3:14">
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="3:12">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" ht="16.8" spans="3:13">
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
+        <v>26</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7">
         <v>120</v>
       </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="3:12">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" ht="16.8" spans="3:13">
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="8">
+        <v>26</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="8">
         <v>101102103</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="3:12">
+      <c r="L10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" ht="24" spans="3:13">
       <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="8">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="8">
         <v>101102103</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>101102103</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="3:11">
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" ht="24" spans="3:12">
       <c r="C12" s="5">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="3:9">
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" ht="24" spans="3:10">
       <c r="C13" s="5">
         <v>8</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="3:4">
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="3:9">
       <c r="C14" s="5">
         <v>9</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="3:4">
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="3:9">
       <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="3:3">
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="3:9">
       <c r="C16" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="3:9">
       <c r="C17" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
+      <c r="D17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="3:9">
       <c r="C18" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="3:9">
       <c r="C19" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="3:9">
       <c r="C20" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="3:9">
       <c r="C21" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
+      <c r="E21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="3:9">
       <c r="C22" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:3">
+      <c r="E22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="3:8">
       <c r="C23" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
+      <c r="E23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="3:8">
       <c r="C24" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:3">
+      <c r="E24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="3:8">
       <c r="C25" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="3:3">
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="3:8">
       <c r="C26" s="5">
         <v>21</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -91,7 +91,7 @@
     <t>20,30,40</t>
   </si>
   <si>
-    <t>5, 1, 5, 2, 5, 1, 5, 4, 5, 4, 1, 4, 5, 4, 3, 4, 2, 5, 2, 4, 3, 2, 3, 5, 1, 5, 3, 2, 1, 5, 1, 2, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4</t>
+    <t>5, 5, 1, 5, 5, 3, 4, 1, 2, 5, 2, 1, 5, 1, 2, 3, 2, 3, 2, 3, 5, 3, 4, 3, 5, 3, 5, 3, 4, 5, 4, 1, 4, 2, 5, 5, 1, 5, 2, 5, 1, 5</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000004</t>
@@ -106,7 +106,7 @@
     <t>1000000001,1000000002,1000000005</t>
   </si>
   <si>
-    <t>3, 3, 2, 3, 3, 4, 4, 1, 1, 3, 4, 4, 3, 3, 5, 5, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 5, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
+    <t>5, 5, 2, 5, 5, 4, 4, 1, 1, 5, 4, 4, 3, 3, 5, 5, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 5, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
   </si>
   <si>
     <t>113, 114, 115, 116, 117, 118, 119</t>
@@ -787,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,9 +812,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1175,7 +1172,7 @@
   <dimension ref="C3:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1341,7 +1338,7 @@
       <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -1375,11 +1372,11 @@
         <v>30</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="8"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="5">
@@ -1400,7 +1397,7 @@
       <c r="H9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="8"/>
@@ -1458,7 +1455,7 @@
       <c r="H11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="8">
@@ -1488,7 +1485,7 @@
       <c r="H12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="7"/>
@@ -1512,7 +1509,7 @@
       <c r="H13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14220"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>关卡ID</t>
   </si>
@@ -82,16 +82,16 @@
     <t>string</t>
   </si>
   <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
     <t>1000000001,1000000001,1000000001</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
     <t>20,30,40</t>
   </si>
   <si>
-    <t>5, 5, 1, 5, 5, 3, 4, 1, 2, 5, 2, 1, 5, 1, 2, 3, 2, 3, 2, 3, 5, 3, 4, 3, 5, 3, 5, 3, 4, 5, 4, 1, 4, 2, 5, 5, 1, 5, 2, 5, 1, 5</t>
+    <t>5, 1, 5, 2, 5, 1, 5, 4, 5, 4, 1, 4, 5, 4, 3, 4, 2, 5, 2, 4, 3, 2, 3, 5, 1, 5, 3, 2, 1, 5, 1, 2, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000004</t>
@@ -106,7 +106,7 @@
     <t>1000000001,1000000002,1000000005</t>
   </si>
   <si>
-    <t>5, 5, 2, 5, 5, 4, 4, 1, 1, 5, 4, 4, 3, 3, 5, 5, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 5, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
+    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 5, 2, 5, 4, 3, 2, 3, 3, 5, 3, 4, 2, 1, 5, 1, 5, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4,</t>
   </si>
   <si>
     <t>113, 114, 115, 116, 117, 118, 119</t>
@@ -156,12 +156,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -197,21 +203,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,50 +308,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,44 +333,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +354,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,6 +432,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,163 +492,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,21 +545,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,7 +567,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +585,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,175 +645,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,78 +806,84 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1169,26 +1181,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M26"/>
+  <dimension ref="A3:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="21.0916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.725" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.3666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.0916666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.45" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.3666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.2666666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0961538461538" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7211538461538" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.3653846153846" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.0961538461538" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.4519230769231" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.3653846153846" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.2692307692308" style="2" customWidth="1"/>
     <col min="9" max="9" width="77" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.0416666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.1833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.0384615384615" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.1826923076923" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.875" style="2"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
@@ -1289,45 +1301,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="3:12">
+    <row r="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" ht="24" spans="3:12">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8">
-        <v>101102</v>
-      </c>
-      <c r="K6" s="9">
-        <v>103104105106107</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:12">
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1335,29 +1335,29 @@
       <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="9">
-        <v>111112</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="3:13">
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9">
+        <v>101102</v>
+      </c>
+      <c r="K7" s="10">
+        <v>103104105106107</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="24" spans="3:12">
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1365,28 +1365,29 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="10">
+        <v>111112</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" ht="24" spans="3:13">
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1394,27 +1395,28 @@
       <c r="G9">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
-        <v>120</v>
-      </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" ht="16.8" spans="3:12">
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1422,29 +1424,27 @@
       <c r="G10">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="8">
-        <v>101102103</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="3:12">
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
+      <c r="I10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="12">
+        <v>120</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" ht="16.8" spans="3:12">
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1452,29 +1452,29 @@
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="I11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="9">
         <v>101102103</v>
       </c>
-      <c r="K11" s="7">
-        <v>101102103</v>
-      </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="5">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
+      <c r="K11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" ht="24" spans="3:12">
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1482,23 +1482,29 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="I12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="9">
+        <v>101102103</v>
+      </c>
+      <c r="K12" s="12">
+        <v>101102103</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" ht="24" spans="3:11">
+      <c r="C13" s="6">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1506,22 +1512,23 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="5">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>23</v>
+      <c r="I13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" ht="24" spans="3:9">
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1529,19 +1536,22 @@
       <c r="G14">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>23</v>
+      <c r="I14" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="3:8">
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1549,19 +1559,19 @@
       <c r="G15">
         <v>10</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="5">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
+    <row r="16" ht="16.8" spans="3:8">
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1569,19 +1579,19 @@
       <c r="G16">
         <v>10</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="5">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>23</v>
+    <row r="17" ht="16.8" spans="3:8">
+      <c r="C17" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1589,121 +1599,141 @@
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="5">
+    <row r="18" ht="16.8" spans="3:8">
+      <c r="C18" s="6">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="3:8">
+      <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="5">
+    <row r="20" ht="16.8" spans="3:8">
+      <c r="C20" s="6">
         <v>14</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="5">
+    <row r="21" ht="16.8" spans="3:8">
+      <c r="C21" s="6">
         <v>15</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="E21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="5">
+    <row r="22" ht="16.8" spans="3:8">
+      <c r="C22" s="6">
         <v>16</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="5">
+    <row r="23" ht="16.8" spans="3:8">
+      <c r="C23" s="6">
         <v>17</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="5">
+    <row r="24" ht="16.8" spans="3:6">
+      <c r="C24" s="6">
         <v>18</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="5">
+      <c r="E24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="3:6">
+      <c r="C25" s="6">
         <v>19</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="5">
+      <c r="E25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="3:6">
+      <c r="C26" s="6">
         <v>20</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="5">
+      <c r="E26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="3:6">
+      <c r="C27" s="6">
         <v>21</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26">
+      <c r="E27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
         <v>1</v>
       </c>
     </row>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowWidth="28800" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>关卡ID</t>
   </si>
@@ -97,7 +97,7 @@
     <t>1000000001,1000000002,1000000004</t>
   </si>
   <si>
-    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 3, 5, 3, 4, 3, 2, 3, 3, 2, 3, 4, 2, 1, 5, 1, 3, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4</t>
+    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 3, 5, 3, 4, 3, 2, 3, 3, 2, 3, 4, 2, 1, 3, 1, 5, 1, 5, 1, 4, 5, 5, 2, 5, 3, 4</t>
   </si>
   <si>
     <t>108, 109, 110</t>
@@ -106,7 +106,7 @@
     <t>1000000001,1000000002,1000000005</t>
   </si>
   <si>
-    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 5, 2, 5, 4, 3, 2, 3, 3, 5, 3, 4, 2, 1, 5, 1, 5, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4,</t>
+    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 3, 5, 3, 4, 3, 2, 3, 3, 2, 3, 4, 2, 1, 5, 1, 3, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4,</t>
   </si>
   <si>
     <t>113, 114, 115, 116, 117, 118, 119</t>
@@ -115,28 +115,31 @@
     <t>1000000001,1000000002,1000000006</t>
   </si>
   <si>
+    <t>5, 5, 3, 2, 3, 5, 3, 1, 3, 1, 2, 1, 3, 1, 2, 3, 2, 1, 3, 3, 2, 3, 1, 3, 2, 3, 1, 3, 4, 3, 4, 1, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3,</t>
+  </si>
+  <si>
+    <t>1000000001,1000000002,1000000007</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 1, 2, 5, 1, 2, 3, 4, 5, 1, 4, 5, 1, 2, 3, 4, 5, 3, 4, 5, 1, 2, 3, 4, 2, 3, 4, 5, 1, 2, 3, 1, 2, 3, 4, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>121， 122， 123， 124</t>
+  </si>
+  <si>
+    <t>1000000001,1000000002,1000000008</t>
+  </si>
+  <si>
+    <t>5, 5, 1, 5, 5, 3, 4, 1, 2, 5, 2, 1, 5, 1, 2, 3, 2, 3, 2, 3, 5, 3, 4, 3, 5, 3, 5, 3, 4, 5, 4, 1, 4, 2, 5, 5, 1, 5, 2, 5, 1, 5</t>
+  </si>
+  <si>
+    <t>1000000013,1000000013,1000000013</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 1, 2, 5, 1, 2, 3, 4, 5, 1, 4, 5, 1, 2, 3, 4, 5, 3, 4, 5, 1, 2, 3, 4, 2, 3, 4, 5, 1, 2, 3, 1, 2, 3, 4, 5, 1, 2</t>
+  </si>
+  <si>
     <t>1, 2, 3, 4, 5, 1, 2, 4, 5, 1, 2, 3, 4, 5, 2, 3, 4, 5, 1, 2, 3, 5, 1, 2, 3, 4, 5, 1, 3, 4, 5, 1, 2, 3, 4, 1, 2, 3, 4, 5, 1, 2</t>
-  </si>
-  <si>
-    <t>1000000001,1000000002,1000000007</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 4, 1, 5, 3, 4, 5, 5, 1, 2, 5, 2, 5, 4, 3, 2, 3, 2, 5, 4, 3, 2, 5, 2, 5, 2, 1, 2, 1, 1, 5, 4, 5, 2, 1, 4, 2, 4</t>
-  </si>
-  <si>
-    <t>121， 122， 123， 124</t>
-  </si>
-  <si>
-    <t>1000000001,1000000002,1000000008</t>
-  </si>
-  <si>
-    <t>1, 1, 3, 2, 4, 1, 1, 2, 2, 4, 3, 5, 2, 2, 3, 3, 5, 4, 1, 3, 3, 4, 4, 1, 5, 2, 4, 4, 5, 5, 2, 1, 3, 5, 5, 1, 1, 3, 2, 4, 1, 1</t>
-  </si>
-  <si>
-    <t>1000000013,1000000013,1000000013</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 1, 2, 5, 1, 2, 3, 4, 5, 1, 4, 5, 1, 2, 3, 4, 5, 3, 4, 5, 1, 2, 3, 4, 2, 3, 4, 5, 1, 2, 3, 1, 2, 3, 4, 5, 1, 2</t>
   </si>
   <si>
     <t>1000000013,1000000013,1000000014</t>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -203,7 +206,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,21 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -263,8 +281,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,53 +341,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -354,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,6 +548,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,16 +585,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,33 +594,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,155 +628,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,9 +809,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -826,64 +826,64 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1183,24 +1183,24 @@
   <sheetPr/>
   <dimension ref="A3:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:L6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.0961538461538" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7211538461538" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.3653846153846" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.0961538461538" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.4519230769231" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.3653846153846" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.2692307692308" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.725" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.3666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.0916666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.45" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.3666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.2666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="77" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.0384615384615" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.1826923076923" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.0416666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.1833333333333" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.875" style="2"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
@@ -1301,10 +1301,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="16.8" spans="1:8">
+    <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>100000</v>
       </c>
       <c r="D6" s="2"/>
@@ -1319,14 +1319,14 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" customFormat="1" ht="24" spans="3:12">
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
+    <row r="7" customFormat="1" spans="3:12">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F7">
@@ -1335,28 +1335,28 @@
       <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>101102</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>103104105106107</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="24" spans="3:12">
-      <c r="C8" s="6">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:12">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F8">
@@ -1365,28 +1365,28 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>111112</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" ht="24" spans="3:13">
-      <c r="C9" s="6">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F9">
@@ -1395,27 +1395,27 @@
       <c r="G9">
         <v>10</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" ht="16.8" spans="3:12">
-      <c r="C10" s="6">
+      <c r="L9" s="8"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10">
@@ -1424,26 +1424,26 @@
       <c r="G10">
         <v>10</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="12">
         <v>120</v>
       </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" ht="16.8" spans="3:12">
-      <c r="C11" s="6">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F11">
@@ -1452,28 +1452,28 @@
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>101102103</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" ht="24" spans="3:12">
-      <c r="C12" s="6">
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="5">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F12">
@@ -1482,28 +1482,28 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>101102103</v>
       </c>
       <c r="K12" s="12">
         <v>101102103</v>
       </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" ht="24" spans="3:11">
-      <c r="C13" s="6">
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="5">
         <v>7</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F13">
@@ -1512,7 +1512,7 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="13" t="s">
@@ -1520,14 +1520,14 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" ht="24" spans="3:9">
-      <c r="C14" s="6">
+    <row r="14" spans="3:9">
+      <c r="C14" s="5">
         <v>8</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F14">
@@ -1536,21 +1536,21 @@
       <c r="G14">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" ht="16.8" spans="3:8">
-      <c r="C15" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="5">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F15">
@@ -1559,18 +1559,18 @@
       <c r="G15">
         <v>10</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="3:8">
-      <c r="C16" s="6">
+    <row r="16" spans="3:8">
+      <c r="C16" s="5">
         <v>10</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F16">
@@ -1579,18 +1579,18 @@
       <c r="G16">
         <v>10</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="3:8">
-      <c r="C17" s="6">
+    <row r="17" spans="3:8">
+      <c r="C17" s="5">
         <v>11</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F17">
@@ -1599,18 +1599,18 @@
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="16.8" spans="3:8">
-      <c r="C18" s="6">
+    <row r="18" spans="3:8">
+      <c r="C18" s="5">
         <v>12</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F18">
@@ -1619,118 +1619,119 @@
       <c r="G18">
         <v>10</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="3:8">
-      <c r="C19" s="6">
+    <row r="19" spans="3:9">
+      <c r="C19" s="5">
         <v>13</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" ht="16.8" spans="3:8">
-      <c r="C20" s="6">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="5">
         <v>14</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="3:8">
-      <c r="C21" s="6">
+    <row r="21" spans="3:8">
+      <c r="C21" s="5">
         <v>15</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="16.8" spans="3:8">
-      <c r="C22" s="6">
+    <row r="22" spans="3:8">
+      <c r="C22" s="5">
         <v>16</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:8">
-      <c r="C23" s="6">
+    <row r="23" spans="3:8">
+      <c r="C23" s="5">
         <v>17</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="16.8" spans="3:6">
-      <c r="C24" s="6">
+    <row r="24" spans="3:6">
+      <c r="C24" s="5">
         <v>18</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="16.8" spans="3:6">
-      <c r="C25" s="6">
+    <row r="25" spans="3:6">
+      <c r="C25" s="5">
         <v>19</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="16.8" spans="3:6">
-      <c r="C26" s="6">
+    <row r="26" spans="3:6">
+      <c r="C26" s="5">
         <v>20</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="16.8" spans="3:6">
-      <c r="C27" s="6">
+    <row r="27" spans="3:6">
+      <c r="C27" s="5">
         <v>21</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F27">

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14220"/>
+    <workbookView windowHeight="22400"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <t>20,30,40</t>
   </si>
   <si>
-    <t>5, 1, 5, 2, 5, 1, 5, 4, 5, 4, 1, 4, 5, 4, 3, 4, 2, 5, 2, 4, 3, 2, 3, 5, 1, 5, 3, 2, 1, 5, 1, 2, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4</t>
+    <t>5, 1, 5, 5, 2, 1, 5, 4, 5, 4, 1, 4, 5, 4, 3, 4, 2, 5, 2, 4, 3, 2, 3, 5, 1, 5, 3, 2, 1, 5, 1, 2, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000004</t>
@@ -160,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -199,30 +199,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,6 +228,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -242,56 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,43 +341,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -357,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,50 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,21 +570,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -648,151 +594,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,64 +826,64 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1184,23 +1184,23 @@
   <dimension ref="A3:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="21.0916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.725" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.3666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.0916666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.45" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.3666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.2666666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0961538461538" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7211538461538" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.3653846153846" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.0961538461538" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.4519230769231" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.3653846153846" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.2692307692308" style="2" customWidth="1"/>
     <col min="9" max="9" width="77" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.0416666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.1833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.0384615384615" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.1826923076923" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.875" style="2"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
@@ -1301,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:8">
+    <row r="6" customFormat="1" ht="16.8" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" customFormat="1" spans="3:12">
+    <row r="7" customFormat="1" ht="24" spans="3:12">
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:12">
+    <row r="8" s="1" customFormat="1" ht="24" spans="3:12">
       <c r="C8" s="5">
         <v>2</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" ht="24" spans="3:13">
       <c r="C9" s="5">
         <v>3</v>
       </c>
@@ -1406,9 +1406,9 @@
         <v>31</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="3:12">
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" ht="24" spans="3:12">
       <c r="C10" s="5">
         <v>4</v>
       </c>
@@ -1431,12 +1431,12 @@
         <v>33</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>120</v>
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" ht="24" spans="3:12">
       <c r="C11" s="5">
         <v>5</v>
       </c>
@@ -1461,12 +1461,12 @@
       <c r="J11" s="8">
         <v>101102103</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" ht="24" spans="3:12">
       <c r="C12" s="5">
         <v>6</v>
       </c>
@@ -1491,12 +1491,12 @@
       <c r="J12" s="8">
         <v>101102103</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>101102103</v>
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" ht="24" spans="3:11">
       <c r="C13" s="5">
         <v>7</v>
       </c>
@@ -1515,12 +1515,12 @@
       <c r="H13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="3:9">
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" ht="24" spans="3:9">
       <c r="C14" s="5">
         <v>8</v>
       </c>
@@ -1539,11 +1539,11 @@
       <c r="H14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
+    <row r="15" ht="16.8" spans="3:8">
       <c r="C15" s="5">
         <v>9</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
+    <row r="16" ht="16.8" spans="3:8">
       <c r="C16" s="5">
         <v>10</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" ht="16.8" spans="3:8">
       <c r="C17" s="5">
         <v>11</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" ht="16.8" spans="3:8">
       <c r="C18" s="5">
         <v>12</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:9">
+    <row r="19" ht="16.8" spans="3:9">
       <c r="C19" s="5">
         <v>13</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" ht="16.8" spans="3:8">
       <c r="C20" s="5">
         <v>14</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" ht="16.8" spans="3:8">
       <c r="C21" s="5">
         <v>15</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" ht="16.8" spans="3:8">
       <c r="C22" s="5">
         <v>16</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" ht="16.8" spans="3:8">
       <c r="C23" s="5">
         <v>17</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" ht="16.8" spans="3:6">
       <c r="C24" s="5">
         <v>18</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" ht="16.8" spans="3:6">
       <c r="C25" s="5">
         <v>19</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" ht="16.8" spans="3:6">
       <c r="C26" s="5">
         <v>20</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" ht="16.8" spans="3:6">
       <c r="C27" s="5">
         <v>21</v>
       </c>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -85,7 +85,7 @@
     <t>1,2,3,4,5</t>
   </si>
   <si>
-    <t>1000000001,1000000001,1000000001</t>
+    <t>1000000001,1000000018,1000000004</t>
   </si>
   <si>
     <t>20,30,40</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -199,14 +199,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,11 +244,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,23 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,11 +298,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,52 +341,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -357,25 +357,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,31 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,121 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +548,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,20 +595,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,15 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -633,166 +648,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A3:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22400"/>
+    <workbookView windowHeight="22320"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -205,6 +205,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -213,21 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -237,10 +251,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,8 +266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +276,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,9 +296,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,58 +341,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -357,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,11 +560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,7 +579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,12 +599,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -619,177 +638,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1184,7 +1184,7 @@
   <dimension ref="A3:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1312,7 +1312,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
@@ -1329,8 +1329,8 @@
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="F7" s="2">
+        <v>5</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1359,8 +1359,8 @@
       <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="F8" s="2">
+        <v>5</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1389,8 +1389,8 @@
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="F9" s="2">
+        <v>5</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1418,8 +1418,8 @@
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
-        <v>1</v>
+      <c r="F10" s="2">
+        <v>5</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1446,8 +1446,8 @@
       <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="F11" s="2">
+        <v>5</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1476,8 +1476,8 @@
       <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12">
-        <v>1</v>
+      <c r="F12" s="2">
+        <v>5</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1506,8 +1506,8 @@
       <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="F13" s="2">
+        <v>5</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1530,8 +1530,8 @@
       <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F14">
-        <v>1</v>
+      <c r="F14" s="2">
+        <v>5</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1553,8 +1553,8 @@
       <c r="E15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F15">
-        <v>1</v>
+      <c r="F15" s="2">
+        <v>5</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -1573,8 +1573,8 @@
       <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
-        <v>1</v>
+      <c r="F16" s="2">
+        <v>5</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1593,8 +1593,8 @@
       <c r="E17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F17">
-        <v>1</v>
+      <c r="F17" s="2">
+        <v>5</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -1613,8 +1613,8 @@
       <c r="E18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F18">
-        <v>1</v>
+      <c r="F18" s="2">
+        <v>5</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -1623,108 +1623,108 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="3:9">
+    <row r="19" spans="3:9">
       <c r="C19" s="5">
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
-        <v>1</v>
+      <c r="F19" s="2">
+        <v>5</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" ht="16.8" spans="3:8">
+    <row r="20" spans="3:8">
       <c r="C20" s="5">
         <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F20">
-        <v>1</v>
+      <c r="F20" s="2">
+        <v>5</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="3:8">
+    <row r="21" spans="3:8">
       <c r="C21" s="5">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F21">
-        <v>1</v>
+      <c r="F21" s="2">
+        <v>5</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="16.8" spans="3:8">
+    <row r="22" spans="3:8">
       <c r="C22" s="5">
         <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F22">
-        <v>1</v>
+      <c r="F22" s="2">
+        <v>5</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:8">
+    <row r="23" spans="3:8">
       <c r="C23" s="5">
         <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F23">
-        <v>1</v>
+      <c r="F23" s="2">
+        <v>5</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="16.8" spans="3:6">
+    <row r="24" spans="3:6">
       <c r="C24" s="5">
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="16.8" spans="3:6">
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="5">
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="16.8" spans="3:6">
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="5">
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F26">
-        <v>1</v>
+      <c r="F26" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="27" ht="16.8" spans="3:6">

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14410" windowHeight="12260"/>
+    <workbookView windowWidth="14400" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>关卡ID</t>
   </si>
@@ -94,13 +94,13 @@
     <t>20,30,40</t>
   </si>
   <si>
-    <t>5, 5, 1, 5, 5, 3, 4, 1, 2, 5, 2, 1, 5, 1, 2, 3, 2, 3, 2, 3, 5, 3, 4, 3, 5, 3, 5, 3, 4, 5, 4, 1, 4, 2, 5, 5, 1, 5, 2, 5, 1, 5</t>
+    <t>5, 1, 5, 2, 5, 1, 5, 4, 5, 4, 1, 4, 5, 4, 5, 4, 5, 4, 5, 4, 5, 2, 5, 2, 1, 5, 5, 2, 1, 5, 1, 2, 1, 5, 1, 5, 3, 5, 2, 5, 3, 5</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000004</t>
   </si>
   <si>
-    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 3, 5, 3, 4, 3, 2, 3, 3, 2, 3, 4, 2, 1, 5, 1, 3, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4</t>
+    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 3, 5, 3, 4, 3, 2, 3, 3, 2, 3, 4, 2, 1, 3, 1, 5, 1, 5, 1, 4, 5, 5, 2, 5, 3, 4</t>
   </si>
   <si>
     <t>108, 109, 110</t>
@@ -109,7 +109,7 @@
     <t>1000000001,1000000002,1000000005</t>
   </si>
   <si>
-    <t>5, 5, 2, 5, 5, 4, 4, 1, 1, 5, 4, 4, 3, 3, 5, 5, 2, 3, 3, 5, 5, 4, 2, 2, 5, 5, 4, 4, 5, 3, 5, 4, 4, 1, 1, 1, 1, 3, 1, 1, 2, 2</t>
+    <t>1, 5, 5, 4, 5, 5, 1, 4, 2, 4, 5, 4, 2, 4, 3, 4, 3, 5, 3, 4, 3, 2, 3, 3, 2, 3, 4, 2, 1, 5, 1, 3, 1, 5, 1, 4, 3, 5, 2, 5, 3, 4,</t>
   </si>
   <si>
     <t>113, 114, 115, 116, 117</t>
@@ -118,13 +118,13 @@
     <t>1000000001,1000000002,1000000006</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 1, 2, 4, 5, 1, 2, 3, 4, 5, 2, 3, 4, 5, 1, 2, 3, 5, 1, 2, 3, 4, 5, 1, 3, 4, 5, 1, 2, 3, 4, 1, 2, 3, 4, 5, 1, 2</t>
+    <t>3, 1, 3, 2, 3, 1, 3, 4, 3, 4, 1, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 2, 3, 2, 1, 3, 3, 2, 1, 3, 1, 2, 1, 3, 1, 3, 5, 3, 2, 3, 5, 3,</t>
   </si>
   <si>
     <t>1000000001,1000000002,1000000007</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 4, 1, 5, 3, 4, 5, 5, 1, 2, 5, 2, 5, 4, 3, 2, 3, 2, 5, 4, 3, 2, 5, 2, 5, 2, 1, 2, 1, 1, 5, 4, 5, 2, 1, 4, 2, 4</t>
+    <t>1, 2, 3, 4, 5, 1, 2, 5, 1, 2, 3, 4, 5, 1, 4, 5, 1, 2, 3, 4, 5, 3, 4, 5, 1, 2, 3, 4, 2, 3, 4, 5, 1, 2, 3, 1, 2, 3, 4, 5, 1, 1</t>
   </si>
   <si>
     <t>119，,10,121,122</t>
@@ -133,13 +133,7 @@
     <t>1000000001,1000000002,1000000008</t>
   </si>
   <si>
-    <t>1, 1, 3, 2, 4, 1, 1, 2, 2, 4, 3, 5, 2, 2, 3, 3, 5, 4, 1, 3, 3, 4, 4, 1, 5, 2, 4, 4, 5, 5, 2, 1, 3, 5, 5, 1, 1, 3, 2, 4, 1, 1</t>
-  </si>
-  <si>
     <t>1000000013,1000000013,1000000013</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 1, 2, 5, 1, 2, 3, 4, 5, 1, 4, 5, 1, 2, 3, 4, 5, 3, 4, 5, 1, 2, 3, 4, 2, 3, 4, 5, 1, 2, 3, 1, 2, 3, 4, 5, 1, 2</t>
   </si>
   <si>
     <t>1000000013,1000000013,1000000014</t>
@@ -164,7 +158,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +185,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -655,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,34 +667,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,98 +703,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,19 +819,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1184,31 +1187,31 @@
   <sheetPr/>
   <dimension ref="C3:M210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M155" sqref="M155"/>
+      <selection pane="topRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35"/>
   <cols>
-    <col min="1" max="1" width="21.0909090909091" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6363636363636" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.3636363636364" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.0909090909091" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.4545454545455" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.3636363636364" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.2636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0884955752212" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7256637168142" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6371681415929" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.3628318584071" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.0884955752212" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.4513274336283" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.3628318584071" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.2654867256637" style="2" customWidth="1"/>
     <col min="9" max="9" width="77" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.0454545454545" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.1818181818182" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.8727272727273" style="2"/>
+    <col min="11" max="11" width="28.0442477876106" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.1858407079646" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.8761061946903" style="2"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:13">
+    <row r="3" ht="12.75" spans="3:13">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:12">
+    <row r="4" spans="3:12">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:12">
+    <row r="5" spans="3:12">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14" spans="3:12">
+    <row r="6" customFormat="1" ht="13.5" spans="3:12">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1337,7 +1340,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14" spans="3:12">
+    <row r="7" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -1367,7 +1370,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" ht="14" spans="3:13">
+    <row r="8" ht="13.5" spans="3:13">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" ht="14" spans="3:12">
+    <row r="9" ht="13.5" spans="3:12">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -1419,12 +1422,12 @@
         <v>34</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="8">
+      <c r="K9" s="13">
         <v>118</v>
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" ht="14" spans="3:12">
+    <row r="10" ht="13.5" spans="3:12">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -1443,16 +1446,16 @@
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="13" t="s">
         <v>37</v>
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" ht="14" spans="3:12">
+    <row r="11" ht="13.5" spans="3:12">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -1471,19 +1474,17 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="I11" s="14"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" ht="14" spans="3:11">
+    <row r="12" ht="13.5" spans="3:11">
       <c r="C12" s="5">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>24</v>
@@ -1497,17 +1498,15 @@
       <c r="H12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" ht="14" spans="3:9">
+      <c r="I12" s="14"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" ht="13.5" spans="3:9">
       <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>24</v>
@@ -1521,16 +1520,14 @@
       <c r="H13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" ht="14" spans="3:8">
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" ht="13.5" spans="3:8">
       <c r="C14" s="5">
         <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>24</v>
@@ -1545,12 +1542,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="14" spans="3:11">
+    <row r="15" ht="13.5" spans="3:11">
       <c r="C15" s="5">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>24</v>
@@ -1568,12 +1565,12 @@
         <v>123124</v>
       </c>
     </row>
-    <row r="16" ht="14" spans="3:8">
+    <row r="16" ht="13.5" spans="3:8">
       <c r="C16" s="5">
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>24</v>
@@ -1588,12 +1585,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="14" spans="3:8">
+    <row r="17" ht="13.5" spans="3:8">
       <c r="C17" s="5">
         <v>12</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -1608,7 +1605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" ht="14" spans="3:8">
+    <row r="18" ht="13.5" spans="3:8">
       <c r="C18" s="5">
         <v>13</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" ht="14" spans="3:8">
+    <row r="19" ht="13.5" spans="3:8">
       <c r="C19" s="5">
         <v>14</v>
       </c>
@@ -1636,7 +1633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" ht="14" spans="3:11">
+    <row r="20" ht="13.5" spans="3:11">
       <c r="C20" s="5">
         <v>15</v>
       </c>
@@ -1653,7 +1650,7 @@
         <v>125126127</v>
       </c>
     </row>
-    <row r="21" ht="14" spans="3:8">
+    <row r="21" ht="13.5" spans="3:8">
       <c r="C21" s="5">
         <v>16</v>
       </c>
@@ -1667,7 +1664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" ht="14" spans="3:8">
+    <row r="22" ht="13.5" spans="3:8">
       <c r="C22" s="5">
         <v>17</v>
       </c>
@@ -1681,7 +1678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" ht="14" spans="3:6">
+    <row r="23" ht="13.5" spans="3:6">
       <c r="C23" s="5">
         <v>18</v>
       </c>
@@ -1692,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14" spans="3:6">
+    <row r="24" ht="13.5" spans="3:6">
       <c r="C24" s="5">
         <v>19</v>
       </c>
@@ -1703,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14" spans="3:11">
+    <row r="25" ht="13.5" spans="3:11">
       <c r="C25" s="5">
         <v>20</v>
       </c>
@@ -1717,7 +1714,7 @@
         <v>128129130</v>
       </c>
     </row>
-    <row r="26" ht="14" spans="3:6">
+    <row r="26" ht="13.5" spans="3:6">
       <c r="C26" s="5">
         <v>21</v>
       </c>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12210"/>
+    <workbookView windowHeight="22320"/>
   </bookViews>
   <sheets>
     <sheet name="LevelConfig" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,829 @@
     <t>20,30,40</t>
   </si>
   <si>
-    <t>5, 1, 5, 2, 5, 1, 5, 4, 5, 4, 1, 4, 5, 4, 5, 4, 5, 4, 5, 4, 5, 2, 5, 2, 1, 5, 5, 2, 1, 5, 1, 2, 1, 5, 1, 5, 3, 5, 2, 5, 3, 5</t>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
   </si>
   <si>
     <t>1000000001,1000000002,1000000004</t>
@@ -154,11 +976,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,11 +1002,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FFB5CEA8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -193,10 +1021,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -206,15 +1042,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,17 +1065,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +1077,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,22 +1097,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -300,22 +1106,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +1121,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +1154,28 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -358,25 +1194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,25 +1218,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +1278,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,49 +1308,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,37 +1344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +1368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,17 +1388,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,24 +1417,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,15 +1453,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -649,155 +1461,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,78 +1652,81 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1190,28 +2029,28 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I31" sqref="I31"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="21.0884955752212" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7256637168142" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6371681415929" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.3628318584071" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.0884955752212" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.4513274336283" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.3628318584071" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.2654867256637" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0865384615385" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7211538461538" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.3653846153846" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.4519230769231" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.3653846153846" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.2692307692308" style="2" customWidth="1"/>
     <col min="9" max="9" width="77" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.0442477876106" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.1858407079646" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.8761061946903" style="2"/>
+    <col min="11" max="11" width="28.0480769230769" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.1826923076923" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.875" style="2"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="12.75" spans="3:13">
+    <row r="3" ht="14.4" spans="3:13">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +2081,7 @@
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1310,7 +2149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="13.5" spans="3:12">
+    <row r="6" customFormat="1" ht="16.8" spans="3:12">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1329,18 +2168,18 @@
       <c r="H6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>101102</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>103104105106107</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="3:12">
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="24" spans="3:12">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -1359,18 +2198,18 @@
       <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>111112</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" ht="13.5" spans="3:13">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" ht="24" spans="3:13">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -1389,17 +2228,17 @@
       <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" ht="13.5" spans="3:12">
+      <c r="L8" s="8"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" ht="24" spans="3:12">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -1418,16 +2257,16 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="13">
+      <c r="J9" s="8"/>
+      <c r="K9" s="12">
         <v>118</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" ht="13.5" spans="3:12">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" ht="24" spans="3:12">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -1446,16 +2285,16 @@
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" ht="13.5" spans="3:12">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" ht="16.8" spans="3:12">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -1474,12 +2313,12 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" ht="13.5" spans="3:11">
+      <c r="I11" s="13"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" ht="16.8" spans="3:11">
       <c r="C12" s="5">
         <v>7</v>
       </c>
@@ -1498,10 +2337,10 @@
       <c r="H12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" ht="13.5" spans="3:9">
+      <c r="I12" s="13"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" ht="16.8" spans="3:9">
       <c r="C13" s="5">
         <v>8</v>
       </c>
@@ -1520,9 +2359,9 @@
       <c r="H13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" ht="13.5" spans="3:8">
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" ht="16.8" spans="3:8">
       <c r="C14" s="5">
         <v>9</v>
       </c>
@@ -1542,7 +2381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="3:11">
+    <row r="15" ht="16.8" spans="3:11">
       <c r="C15" s="5">
         <v>10</v>
       </c>
@@ -1561,11 +2400,11 @@
       <c r="H15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="14">
         <v>123124</v>
       </c>
     </row>
-    <row r="16" ht="13.5" spans="3:8">
+    <row r="16" ht="16.8" spans="3:8">
       <c r="C16" s="5">
         <v>11</v>
       </c>
@@ -1585,7 +2424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="13.5" spans="3:8">
+    <row r="17" ht="16.8" spans="3:8">
       <c r="C17" s="5">
         <v>12</v>
       </c>
@@ -1605,7 +2444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="3:8">
+    <row r="18" ht="16.8" spans="3:8">
       <c r="C18" s="5">
         <v>13</v>
       </c>
@@ -1619,7 +2458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="3:8">
+    <row r="19" ht="16.8" spans="3:8">
       <c r="C19" s="5">
         <v>14</v>
       </c>
@@ -1633,7 +2472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="3:11">
+    <row r="20" ht="16.8" spans="3:11">
       <c r="C20" s="5">
         <v>15</v>
       </c>
@@ -1646,11 +2485,11 @@
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="14">
         <v>125126127</v>
       </c>
     </row>
-    <row r="21" ht="13.5" spans="3:8">
+    <row r="21" ht="16.8" spans="3:8">
       <c r="C21" s="5">
         <v>16</v>
       </c>
@@ -1664,7 +2503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" ht="13.5" spans="3:8">
+    <row r="22" ht="16.8" spans="3:8">
       <c r="C22" s="5">
         <v>17</v>
       </c>
@@ -1678,7 +2517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" ht="13.5" spans="3:6">
+    <row r="23" ht="16.8" spans="3:6">
       <c r="C23" s="5">
         <v>18</v>
       </c>
@@ -1689,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="13.5" spans="3:6">
+    <row r="24" ht="16.8" spans="3:6">
       <c r="C24" s="5">
         <v>19</v>
       </c>
@@ -1700,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="3:11">
+    <row r="25" ht="16.8" spans="3:11">
       <c r="C25" s="5">
         <v>20</v>
       </c>
@@ -1710,11 +2549,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="14">
         <v>128129130</v>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="3:6">
+    <row r="26" ht="16.8" spans="3:6">
       <c r="C26" s="5">
         <v>21</v>
       </c>
@@ -1744,7 +2583,7 @@
       <c r="C30" s="5">
         <v>25</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="14">
         <v>131132</v>
       </c>
     </row>
@@ -1772,10 +2611,10 @@
       <c r="C35" s="5">
         <v>30</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="14">
         <v>133134135</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="14">
         <v>136137</v>
       </c>
     </row>
@@ -1803,7 +2642,7 @@
       <c r="C40" s="5">
         <v>35</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="14">
         <v>138139140141142</v>
       </c>
     </row>
@@ -1831,7 +2670,7 @@
       <c r="C45" s="5">
         <v>40</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="14">
         <v>143144</v>
       </c>
     </row>
@@ -1859,7 +2698,7 @@
       <c r="C50" s="5">
         <v>45</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="14">
         <v>145146147148</v>
       </c>
     </row>
@@ -1887,7 +2726,7 @@
       <c r="C55" s="5">
         <v>50</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="14">
         <v>149150151152</v>
       </c>
     </row>
@@ -1915,7 +2754,7 @@
       <c r="C60" s="5">
         <v>55</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="14">
         <v>153154155</v>
       </c>
     </row>
@@ -1943,10 +2782,10 @@
       <c r="C65" s="5">
         <v>60</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="14">
         <v>156157158159</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="14">
         <v>160161</v>
       </c>
     </row>
@@ -1974,10 +2813,10 @@
       <c r="C70" s="5">
         <v>65</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="14">
         <v>162163164</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="14">
         <v>165166167</v>
       </c>
     </row>
@@ -2005,7 +2844,7 @@
       <c r="C75" s="5">
         <v>70</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="14">
         <v>168169170171</v>
       </c>
     </row>
@@ -2064,7 +2903,7 @@
       <c r="C85" s="5">
         <v>80</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85" s="14">
         <v>174175176</v>
       </c>
     </row>
@@ -2092,7 +2931,7 @@
       <c r="C90" s="5">
         <v>85</v>
       </c>
-      <c r="K90" s="12">
+      <c r="K90" s="14">
         <v>177178179180</v>
       </c>
     </row>
@@ -2120,7 +2959,7 @@
       <c r="C95" s="5">
         <v>90</v>
       </c>
-      <c r="J95" s="12">
+      <c r="J95" s="14">
         <v>181182183184</v>
       </c>
       <c r="M95" s="2">
@@ -2151,7 +2990,7 @@
       <c r="C100" s="5">
         <v>95</v>
       </c>
-      <c r="J100" s="12">
+      <c r="J100" s="14">
         <v>186187188</v>
       </c>
     </row>
@@ -2182,7 +3021,7 @@
       <c r="J105" s="2">
         <v>189</v>
       </c>
-      <c r="K105" s="12">
+      <c r="K105" s="14">
         <v>190191</v>
       </c>
     </row>
@@ -2210,7 +3049,7 @@
       <c r="C110" s="5">
         <v>105</v>
       </c>
-      <c r="K110" s="12">
+      <c r="K110" s="14">
         <v>192193194</v>
       </c>
     </row>
@@ -2238,7 +3077,7 @@
       <c r="C115" s="5">
         <v>110</v>
       </c>
-      <c r="K115" s="12">
+      <c r="K115" s="14">
         <v>1.95196197198199e+17</v>
       </c>
     </row>
@@ -2266,10 +3105,10 @@
       <c r="C120" s="5">
         <v>115</v>
       </c>
-      <c r="J120" s="12">
+      <c r="J120" s="14">
         <v>201202203</v>
       </c>
-      <c r="K120" s="12">
+      <c r="K120" s="14">
         <v>204205206</v>
       </c>
     </row>
@@ -2297,10 +3136,10 @@
       <c r="C125" s="5">
         <v>120</v>
       </c>
-      <c r="J125" s="12">
+      <c r="J125" s="14">
         <v>207208209</v>
       </c>
-      <c r="M125" s="12">
+      <c r="M125" s="14">
         <v>210211212213</v>
       </c>
     </row>
@@ -2328,7 +3167,7 @@
       <c r="C130" s="5">
         <v>125</v>
       </c>
-      <c r="K130" s="12">
+      <c r="K130" s="14">
         <v>214215216217</v>
       </c>
     </row>
@@ -2356,7 +3195,7 @@
       <c r="C135" s="5">
         <v>130</v>
       </c>
-      <c r="K135" s="12">
+      <c r="K135" s="14">
         <v>218219220221</v>
       </c>
     </row>
@@ -2384,7 +3223,7 @@
       <c r="C140" s="5">
         <v>135</v>
       </c>
-      <c r="K140" s="12">
+      <c r="K140" s="14">
         <v>222223224225</v>
       </c>
     </row>
@@ -2412,7 +3251,7 @@
       <c r="C145" s="5">
         <v>140</v>
       </c>
-      <c r="M145" s="12">
+      <c r="M145" s="14">
         <v>226227228229</v>
       </c>
     </row>
@@ -2440,7 +3279,7 @@
       <c r="C150" s="5">
         <v>145</v>
       </c>
-      <c r="K150" s="12">
+      <c r="K150" s="14">
         <v>230231232233</v>
       </c>
     </row>
@@ -2468,7 +3307,7 @@
       <c r="C155" s="5">
         <v>150</v>
       </c>
-      <c r="M155" s="12">
+      <c r="M155" s="14">
         <v>234235236237</v>
       </c>
     </row>
@@ -2496,7 +3335,7 @@
       <c r="C160" s="5">
         <v>155</v>
       </c>
-      <c r="K160" s="12">
+      <c r="K160" s="14">
         <v>238239</v>
       </c>
     </row>
@@ -2524,7 +3363,7 @@
       <c r="C165" s="5">
         <v>160</v>
       </c>
-      <c r="K165" s="12">
+      <c r="K165" s="14">
         <v>240241242</v>
       </c>
     </row>
@@ -2552,7 +3391,7 @@
       <c r="C170" s="5">
         <v>165</v>
       </c>
-      <c r="K170" s="12">
+      <c r="K170" s="14">
         <v>243244245246247</v>
       </c>
     </row>
@@ -2580,7 +3419,7 @@
       <c r="C175" s="5">
         <v>170</v>
       </c>
-      <c r="K175" s="12">
+      <c r="K175" s="14">
         <v>248249250251</v>
       </c>
     </row>
@@ -2608,7 +3447,7 @@
       <c r="C180" s="5">
         <v>175</v>
       </c>
-      <c r="K180" s="12">
+      <c r="K180" s="14">
         <v>252253</v>
       </c>
     </row>
@@ -2636,7 +3475,7 @@
       <c r="C185" s="5">
         <v>180</v>
       </c>
-      <c r="K185" s="12">
+      <c r="K185" s="14">
         <v>254255256</v>
       </c>
     </row>
@@ -2664,7 +3503,7 @@
       <c r="C190" s="5">
         <v>185</v>
       </c>
-      <c r="J190" s="12">
+      <c r="J190" s="14">
         <v>257258259260</v>
       </c>
     </row>
@@ -2692,7 +3531,7 @@
       <c r="C195" s="5">
         <v>190</v>
       </c>
-      <c r="J195" s="12">
+      <c r="J195" s="14">
         <v>261262263</v>
       </c>
     </row>
@@ -2720,7 +3559,7 @@
       <c r="C200" s="5">
         <v>195</v>
       </c>
-      <c r="J200" s="12">
+      <c r="J200" s="14">
         <v>264265266267268</v>
       </c>
       <c r="K200" s="2">
@@ -2754,7 +3593,7 @@
       <c r="C205" s="5">
         <v>200</v>
       </c>
-      <c r="J205" s="12">
+      <c r="J205" s="14">
         <v>271272273</v>
       </c>
       <c r="K205" s="2">

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -95,6 +95,166 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -115,6 +275,246 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -135,6 +535,46 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -155,6 +595,46 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -175,6 +655,46 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -195,6 +715,26 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -235,7 +775,47 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -275,26 +855,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -315,7 +875,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -336,566 +896,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -975,10 +975,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1036,37 +1036,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,17 +1058,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,46 +1074,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +1105,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,7 +1194,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,19 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,55 +1254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +1284,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,37 +1314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,19 +1338,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,22 +1401,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,17 +1421,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,15 +1437,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1485,148 +1455,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
